--- a/APM files/129109237/129109237 IMPORT 3 Room Type Rate Plan - deactivation.xlsx
+++ b/APM files/129109237/129109237 IMPORT 3 Room Type Rate Plan - deactivation.xlsx
@@ -1,37 +1,505 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\129109237\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A6A086-FDFB-4A04-AE75-C2D694A23F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="13860" yWindow="5520" windowWidth="22440" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="148">
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>SF ID</t>
+  </si>
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Room Type ID</t>
+  </si>
+  <si>
+    <t>Room Type Code</t>
+  </si>
+  <si>
+    <t>Rate Plan ID</t>
+  </si>
+  <si>
+    <t>Rate Plan Name</t>
+  </si>
+  <si>
+    <t>Expedia Collect Rate Plan Code</t>
+  </si>
+  <si>
+    <t>Rate Plan Status</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>103981875</t>
+  </si>
+  <si>
+    <t>324542528</t>
+  </si>
+  <si>
+    <t>394897661</t>
+  </si>
+  <si>
+    <t>104257894</t>
+  </si>
+  <si>
+    <t>324607500</t>
+  </si>
+  <si>
+    <t>395045606</t>
+  </si>
+  <si>
+    <t>103981871</t>
+  </si>
+  <si>
+    <t>324542531</t>
+  </si>
+  <si>
+    <t>394897660</t>
+  </si>
+  <si>
+    <t>103981879</t>
+  </si>
+  <si>
+    <t>324542526</t>
+  </si>
+  <si>
+    <t>394897662</t>
+  </si>
+  <si>
+    <t>103981877</t>
+  </si>
+  <si>
+    <t>324542527</t>
+  </si>
+  <si>
+    <t>394897657</t>
+  </si>
+  <si>
+    <t>104257884</t>
+  </si>
+  <si>
+    <t>324607499</t>
+  </si>
+  <si>
+    <t>395045607</t>
+  </si>
+  <si>
+    <t>104257890</t>
+  </si>
+  <si>
+    <t>324607513</t>
+  </si>
+  <si>
+    <t>395045619</t>
+  </si>
+  <si>
+    <t>104257895</t>
+  </si>
+  <si>
+    <t>324607507</t>
+  </si>
+  <si>
+    <t>395045614</t>
+  </si>
+  <si>
+    <t>103872283</t>
+  </si>
+  <si>
+    <t>324514597</t>
+  </si>
+  <si>
+    <t>394842038</t>
+  </si>
+  <si>
+    <t>103872279</t>
+  </si>
+  <si>
+    <t>324514603</t>
+  </si>
+  <si>
+    <t>394842047</t>
+  </si>
+  <si>
+    <t>103872282</t>
+  </si>
+  <si>
+    <t>324514598</t>
+  </si>
+  <si>
+    <t>394842039</t>
+  </si>
+  <si>
+    <t>103872281</t>
+  </si>
+  <si>
+    <t>324514606</t>
+  </si>
+  <si>
+    <t>394842048</t>
+  </si>
+  <si>
+    <t>103872284</t>
+  </si>
+  <si>
+    <t>324514602</t>
+  </si>
+  <si>
+    <t>394842041</t>
+  </si>
+  <si>
+    <t>103945119</t>
+  </si>
+  <si>
+    <t>324533511</t>
+  </si>
+  <si>
+    <t>394877524</t>
+  </si>
+  <si>
+    <t>103981873</t>
+  </si>
+  <si>
+    <t>324542523</t>
+  </si>
+  <si>
+    <t>394897654</t>
+  </si>
+  <si>
+    <t>103872278</t>
+  </si>
+  <si>
+    <t>324514600</t>
+  </si>
+  <si>
+    <t>394842042</t>
+  </si>
+  <si>
+    <t>103872280</t>
+  </si>
+  <si>
+    <t>324514604</t>
+  </si>
+  <si>
+    <t>394842043</t>
+  </si>
+  <si>
+    <t>103872277</t>
+  </si>
+  <si>
+    <t>324514605</t>
+  </si>
+  <si>
+    <t>394842046</t>
+  </si>
+  <si>
+    <t>103945115</t>
+  </si>
+  <si>
+    <t>324533509</t>
+  </si>
+  <si>
+    <t>394877529</t>
+  </si>
+  <si>
+    <t>104348625</t>
+  </si>
+  <si>
+    <t>324630162</t>
+  </si>
+  <si>
+    <t>395092371</t>
+  </si>
+  <si>
+    <t>104257903</t>
+  </si>
+  <si>
+    <t>324607493</t>
+  </si>
+  <si>
+    <t>395045598</t>
+  </si>
+  <si>
+    <t>104043751</t>
+  </si>
+  <si>
+    <t>324559450</t>
+  </si>
+  <si>
+    <t>394928354</t>
+  </si>
+  <si>
+    <t>103872271</t>
+  </si>
+  <si>
+    <t>324514599</t>
+  </si>
+  <si>
+    <t>394842040</t>
+  </si>
+  <si>
+    <t>103872275</t>
+  </si>
+  <si>
+    <t>324514592</t>
+  </si>
+  <si>
+    <t>394842033</t>
+  </si>
+  <si>
+    <t>103872274</t>
+  </si>
+  <si>
+    <t>324514595</t>
+  </si>
+  <si>
+    <t>394842044</t>
+  </si>
+  <si>
+    <t>103945118</t>
+  </si>
+  <si>
+    <t>324533510</t>
+  </si>
+  <si>
+    <t>394877526</t>
+  </si>
+  <si>
+    <t>104348627</t>
+  </si>
+  <si>
+    <t>324630170</t>
+  </si>
+  <si>
+    <t>395092380</t>
+  </si>
+  <si>
+    <t>103872272</t>
+  </si>
+  <si>
+    <t>324514601</t>
+  </si>
+  <si>
+    <t>394842045</t>
+  </si>
+  <si>
+    <t>103945117</t>
+  </si>
+  <si>
+    <t>324533508</t>
+  </si>
+  <si>
+    <t>394877525</t>
+  </si>
+  <si>
+    <t>104257904</t>
+  </si>
+  <si>
+    <t>324607510</t>
+  </si>
+  <si>
+    <t>395045814</t>
+  </si>
+  <si>
+    <t>104257906</t>
+  </si>
+  <si>
+    <t>324607490</t>
+  </si>
+  <si>
+    <t>395045595</t>
+  </si>
+  <si>
+    <t>104004119</t>
+  </si>
+  <si>
+    <t>324548684</t>
+  </si>
+  <si>
+    <t>394908921</t>
+  </si>
+  <si>
+    <t>103872269</t>
+  </si>
+  <si>
+    <t>324514591</t>
+  </si>
+  <si>
+    <t>394842035</t>
+  </si>
+  <si>
+    <t>104257905</t>
+  </si>
+  <si>
+    <t>324607506</t>
+  </si>
+  <si>
+    <t>395045615</t>
+  </si>
+  <si>
+    <t>104257899</t>
+  </si>
+  <si>
+    <t>324607512</t>
+  </si>
+  <si>
+    <t>395045613</t>
+  </si>
+  <si>
+    <t>104257897</t>
+  </si>
+  <si>
+    <t>324607511</t>
+  </si>
+  <si>
+    <t>395045617</t>
+  </si>
+  <si>
+    <t>103872270</t>
+  </si>
+  <si>
+    <t>324514594</t>
+  </si>
+  <si>
+    <t>394842036</t>
+  </si>
+  <si>
+    <t>103872273</t>
+  </si>
+  <si>
+    <t>324514593</t>
+  </si>
+  <si>
+    <t>394842037</t>
+  </si>
+  <si>
+    <t>x380751</t>
+  </si>
+  <si>
+    <t>x381002</t>
+  </si>
+  <si>
+    <t>x380753</t>
+  </si>
+  <si>
+    <t>x380907</t>
+  </si>
+  <si>
+    <t>x380908</t>
+  </si>
+  <si>
+    <t>x380944</t>
+  </si>
+  <si>
+    <t>x380528</t>
+  </si>
+  <si>
+    <t>x380522</t>
+  </si>
+  <si>
+    <t>x380527</t>
+  </si>
+  <si>
+    <t>x380592</t>
+  </si>
+  <si>
+    <t>x380138</t>
+  </si>
+  <si>
+    <t>x380657</t>
+  </si>
+  <si>
+    <t>x381123</t>
+  </si>
+  <si>
+    <t>x381006</t>
+  </si>
+  <si>
+    <t>x380826</t>
+  </si>
+  <si>
+    <t>x380185</t>
+  </si>
+  <si>
+    <t>x380286</t>
+  </si>
+  <si>
+    <t>x381084</t>
+  </si>
+  <si>
+    <t>x380917</t>
+  </si>
+  <si>
+    <t>x380913</t>
+  </si>
+  <si>
+    <t>x380784</t>
+  </si>
+  <si>
+    <t>x380909</t>
+  </si>
+  <si>
+    <t>x380184</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +514,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,89 +838,1154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SF ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type ID</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Room Type Code</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rate Plan ID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Rate Plan Name</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Expedia Collect Rate Plan Code</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel Collect Rate Plan Code</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Rate Plan Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Inactive</t>
-        </is>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>129333937</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>129333937</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>129333937</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>129333937</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>129333937</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>129333937</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>129333937</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>129333937</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>129333937</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>129333937</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>129333937</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>129333937</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>129333937</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>129333937</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>129333937</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>129333937</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>129333937</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>129333937</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>129333937</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" t="s">
+        <v>136</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>129333937</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>129333937</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>129333937</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" t="s">
+        <v>139</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>129333937</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25">
+        <v>129333937</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>129333937</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>140</v>
+      </c>
+      <c r="H26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>129333937</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>129333937</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>129333937</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" t="s">
+        <v>140</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>129333937</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>129333937</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" t="s">
+        <v>143</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>129333937</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>129333937</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>105</v>
+      </c>
+      <c r="E33" t="s">
+        <v>145</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" t="s">
+        <v>145</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>129333937</v>
+      </c>
+      <c r="C34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>129333937</v>
+      </c>
+      <c r="C35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G35" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>129333937</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>129333937</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37" t="s">
+        <v>146</v>
+      </c>
+      <c r="I37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38">
+        <v>129333937</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" t="s">
+        <v>147</v>
+      </c>
+      <c r="H38" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39">
+        <v>129333937</v>
+      </c>
+      <c r="C39" t="s">
+        <v>122</v>
+      </c>
+      <c r="D39" t="s">
+        <v>123</v>
+      </c>
+      <c r="E39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" t="s">
+        <v>140</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
